--- a/Reference_Info/Texture replacements.xlsx
+++ b/Reference_Info/Texture replacements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevenconnell\OneDrive - CTS Group Pty Ltd\Documents\GitHub\BD64maps_v2.666\Reference_Info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connell\Documents\GitHub\BD64-VoH_maps\Reference_Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A36CD00-29A6-49CA-8B96-658E926258B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E9186E-56CC-4A5E-A58A-DB34806DA49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A567E191-AF02-4B5D-A98D-30E219FAA09A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A567E191-AF02-4B5D-A98D-30E219FAA09A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="192">
   <si>
     <t>NEW50</t>
   </si>
@@ -520,6 +523,87 @@
   </si>
   <si>
     <t>TILEF504</t>
+  </si>
+  <si>
+    <t>FTILE761</t>
+  </si>
+  <si>
+    <t>ZAPORTAL</t>
+  </si>
+  <si>
+    <t>CONS1_5</t>
+  </si>
+  <si>
+    <t>ASHWALL2</t>
+  </si>
+  <si>
+    <t>TILE0830</t>
+  </si>
+  <si>
+    <t>NEW52</t>
+  </si>
+  <si>
+    <t>NEW33</t>
+  </si>
+  <si>
+    <t>NUKAGE1</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>FLOOR4_1</t>
+  </si>
+  <si>
+    <t>OUTC60</t>
+  </si>
+  <si>
+    <t>NEW80</t>
+  </si>
+  <si>
+    <t>NEW29</t>
+  </si>
+  <si>
+    <t>TILE02F6</t>
+  </si>
+  <si>
+    <t>OUTC45</t>
+  </si>
+  <si>
+    <t>NEW91</t>
+  </si>
+  <si>
+    <t>TILE1436</t>
+  </si>
+  <si>
+    <t>TILED7C9</t>
+  </si>
+  <si>
+    <t>FWATER1</t>
+  </si>
+  <si>
+    <t>TILE33A7</t>
+  </si>
+  <si>
+    <t>BLOOD1</t>
+  </si>
+  <si>
+    <t>RROCK05</t>
+  </si>
+  <si>
+    <t>NEW44</t>
+  </si>
+  <si>
+    <t>NEW83</t>
+  </si>
+  <si>
+    <t>TILE1CB1</t>
+  </si>
+  <si>
+    <t>NEW82</t>
+  </si>
+  <si>
+    <t>NEW18</t>
   </si>
 </sst>
 </file>
@@ -881,20 +965,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764EE261-F28C-4A12-9150-B74128514BA4}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -909,841 +993,1001 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>71</v>
       </c>
       <c r="D5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>74</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>77</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>107</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>117</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>136</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>90</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>88</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>116</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>114</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>128</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C19" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>140</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>69</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C25" t="s">
         <v>52</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>4</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>39</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>131</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C29" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>99</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C30" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>130</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C31" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>96</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C32" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>109</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C34" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>139</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C35" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>129</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C36" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>0</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C37" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>15</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>79</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C40" t="s">
         <v>82</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D40" t="s">
         <v>80</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E40" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>57</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C41" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>53</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C42" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>17</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C43" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>27</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>11</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C45" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>138</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C46" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>58</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C47" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>137</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C48" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>83</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C49" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>105</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C50" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>121</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C51" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>122</v>
-      </c>
-      <c r="C45" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>124</v>
-      </c>
-      <c r="C46" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>123</v>
-      </c>
-      <c r="C47" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>100</v>
       </c>
       <c r="C52" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>190</v>
+      </c>
+      <c r="C56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>102</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C62" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>104</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C63" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>94</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C64" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>103</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C65" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>95</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C66" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>141</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C67" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>143</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C68" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>144</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C69" t="s">
         <v>59</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D69" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>146</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D70" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>188</v>
+      </c>
+      <c r="C71" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>180</v>
+      </c>
+      <c r="D73" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>147</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C80" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>6</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C81" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>29</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C85" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>31</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C86" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>36</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C87" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>40</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C88" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>20</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C89" t="s">
         <v>52</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D89" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>37</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C90" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>34</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C91" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>22</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C92" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>46</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C93" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>91</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C94" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>30</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C95" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>28</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C96" t="s">
         <v>52</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D96" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>33</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C97" t="s">
         <v>52</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D97" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>111</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C98" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>47</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C104" t="s">
         <v>50</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D104" t="s">
         <v>48</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E104" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>127</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C105" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>132</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C106" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>113</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C107" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>51</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C108" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>60</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C109" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>67</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C110" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>64</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C111" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>126</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C112" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>55</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C113" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>42</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C114" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>8</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C115" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>125</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C116" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>86</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C117" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>44</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C118" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>66</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C119" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>62</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C120" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>165</v>
+      </c>
+      <c r="C122" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>167</v>
+      </c>
+      <c r="C123" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>168</v>
+      </c>
+      <c r="C124" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>169</v>
+      </c>
+      <c r="C125" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>174</v>
+      </c>
+      <c r="C126" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>182</v>
+      </c>
+      <c r="C127" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>184</v>
+      </c>
+      <c r="C128" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>186</v>
+      </c>
+      <c r="C129" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>150</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C133" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>151</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C134" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>153</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C135" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>155</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C136" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>157</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C137" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>159</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C138" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>161</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C139" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>163</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C140" t="s">
         <v>164</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E57">
-    <sortCondition ref="A3:A57"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E66">
+    <sortCondition ref="A5:A66"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Reference_Info/Texture replacements.xlsx
+++ b/Reference_Info/Texture replacements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connell\Documents\GitHub\BD64-VoH_maps\Reference_Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E9186E-56CC-4A5E-A58A-DB34806DA49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA44CFBA-DCA6-47A3-90F6-70344B6926DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A567E191-AF02-4B5D-A98D-30E219FAA09A}"/>
+    <workbookView xWindow="3945" yWindow="3615" windowWidth="21600" windowHeight="11295" xr2:uid="{A567E191-AF02-4B5D-A98D-30E219FAA09A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="200">
   <si>
     <t>NEW50</t>
   </si>
@@ -604,6 +604,30 @@
   </si>
   <si>
     <t>NEW18</t>
+  </si>
+  <si>
+    <t>TC THINGS</t>
+  </si>
+  <si>
+    <t>Nightmare Imp</t>
+  </si>
+  <si>
+    <t>Zombieman</t>
+  </si>
+  <si>
+    <t>Ceiling Lamp</t>
+  </si>
+  <si>
+    <t>Invisibility Sphere</t>
+  </si>
+  <si>
+    <t>Hanging Lamp</t>
+  </si>
+  <si>
+    <t>Acid Demon</t>
+  </si>
+  <si>
+    <t>Hell Potion</t>
   </si>
 </sst>
 </file>
@@ -648,9 +672,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -965,20 +992,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764EE261-F28C-4A12-9150-B74128514BA4}">
-  <dimension ref="A1:E140"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -993,7 +1020,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -1001,7 +1028,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -1009,7 +1036,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -1017,7 +1044,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -1025,7 +1052,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -1033,7 +1060,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -1041,7 +1068,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -1049,7 +1076,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>107</v>
       </c>
@@ -1057,7 +1084,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>117</v>
       </c>
@@ -1065,7 +1092,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -1073,7 +1100,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>191</v>
       </c>
@@ -1081,7 +1108,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -1089,7 +1116,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -1097,7 +1124,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>116</v>
       </c>
@@ -1105,7 +1132,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>114</v>
       </c>
@@ -1113,7 +1140,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1121,7 +1148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>128</v>
       </c>
@@ -1129,7 +1156,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>140</v>
       </c>
@@ -1137,7 +1164,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>177</v>
       </c>
@@ -1145,7 +1172,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -1153,7 +1180,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1161,7 +1188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>171</v>
       </c>
@@ -1169,7 +1196,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1180,7 +1207,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1188,7 +1215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1196,7 +1223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1204,7 +1231,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>131</v>
       </c>
@@ -1212,7 +1239,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>99</v>
       </c>
@@ -1220,7 +1247,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>130</v>
       </c>
@@ -1228,7 +1255,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>96</v>
       </c>
@@ -1236,7 +1263,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>187</v>
       </c>
@@ -1244,7 +1271,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>109</v>
       </c>
@@ -1252,7 +1279,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>139</v>
       </c>
@@ -1260,7 +1287,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>129</v>
       </c>
@@ -1268,7 +1295,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1276,7 +1303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>170</v>
       </c>
@@ -1284,7 +1311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -1292,7 +1319,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -1306,7 +1333,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -1314,7 +1341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -1322,7 +1349,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -1330,7 +1357,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -1338,7 +1365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -1346,7 +1373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>138</v>
       </c>
@@ -1354,7 +1381,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -1362,7 +1389,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>137</v>
       </c>
@@ -1370,7 +1397,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>83</v>
       </c>
@@ -1378,7 +1405,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>105</v>
       </c>
@@ -1386,7 +1413,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>121</v>
       </c>
@@ -1394,7 +1421,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>122</v>
       </c>
@@ -1402,7 +1429,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>124</v>
       </c>
@@ -1410,7 +1437,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>176</v>
       </c>
@@ -1418,7 +1445,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>123</v>
       </c>
@@ -1426,7 +1453,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>190</v>
       </c>
@@ -1434,7 +1461,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -1442,7 +1469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>92</v>
       </c>
@@ -1450,7 +1477,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -1458,7 +1485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>84</v>
       </c>
@@ -1466,7 +1493,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>100</v>
       </c>
@@ -1474,7 +1501,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>102</v>
       </c>
@@ -1482,7 +1509,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>104</v>
       </c>
@@ -1490,7 +1517,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -1498,7 +1525,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>103</v>
       </c>
@@ -1506,7 +1533,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>95</v>
       </c>
@@ -1514,7 +1541,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>141</v>
       </c>
@@ -1522,7 +1549,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>143</v>
       </c>
@@ -1530,7 +1557,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>144</v>
       </c>
@@ -1541,7 +1568,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>146</v>
       </c>
@@ -1549,7 +1576,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>188</v>
       </c>
@@ -1557,7 +1584,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>84</v>
       </c>
@@ -1565,7 +1592,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>180</v>
       </c>
@@ -1573,7 +1600,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>147</v>
       </c>
@@ -1581,7 +1608,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -1589,7 +1616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>29</v>
       </c>
@@ -1597,7 +1624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -1605,7 +1632,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>36</v>
       </c>
@@ -1613,7 +1640,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>40</v>
       </c>
@@ -1621,7 +1648,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -1632,7 +1659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>37</v>
       </c>
@@ -1640,7 +1667,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>34</v>
       </c>
@@ -1648,7 +1675,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>22</v>
       </c>
@@ -1656,7 +1683,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>46</v>
       </c>
@@ -1664,7 +1691,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -1672,7 +1699,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>30</v>
       </c>
@@ -1680,7 +1707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>28</v>
       </c>
@@ -1691,7 +1718,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>33</v>
       </c>
@@ -1702,7 +1729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>111</v>
       </c>
@@ -1710,7 +1737,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>47</v>
       </c>
@@ -1724,7 +1751,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>127</v>
       </c>
@@ -1732,7 +1759,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>132</v>
       </c>
@@ -1740,7 +1767,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -1748,7 +1775,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>51</v>
       </c>
@@ -1756,7 +1783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>60</v>
       </c>
@@ -1764,7 +1791,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>67</v>
       </c>
@@ -1772,7 +1799,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>64</v>
       </c>
@@ -1780,7 +1807,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>126</v>
       </c>
@@ -1788,7 +1815,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>55</v>
       </c>
@@ -1796,7 +1823,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>42</v>
       </c>
@@ -1804,7 +1831,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -1812,7 +1839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>125</v>
       </c>
@@ -1820,7 +1847,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>86</v>
       </c>
@@ -1828,7 +1855,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>44</v>
       </c>
@@ -1836,7 +1863,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>66</v>
       </c>
@@ -1844,7 +1871,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>62</v>
       </c>
@@ -1852,7 +1879,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>165</v>
       </c>
@@ -1860,7 +1887,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>167</v>
       </c>
@@ -1868,7 +1895,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>168</v>
       </c>
@@ -1876,7 +1903,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>169</v>
       </c>
@@ -1884,7 +1911,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>174</v>
       </c>
@@ -1892,7 +1919,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>182</v>
       </c>
@@ -1900,7 +1927,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>184</v>
       </c>
@@ -1908,7 +1935,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>186</v>
       </c>
@@ -1916,12 +1943,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>150</v>
       </c>
@@ -1929,7 +1956,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>151</v>
       </c>
@@ -1937,7 +1964,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>153</v>
       </c>
@@ -1945,7 +1972,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>155</v>
       </c>
@@ -1953,7 +1980,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>157</v>
       </c>
@@ -1961,7 +1988,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>159</v>
       </c>
@@ -1969,7 +1996,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>161</v>
       </c>
@@ -1977,12 +2004,73 @@
         <v>162</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>163</v>
       </c>
       <c r="C140" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>400</v>
+      </c>
+      <c r="C145" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>550</v>
+      </c>
+      <c r="C146" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>2028</v>
+      </c>
+      <c r="C147" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C148" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>48</v>
+      </c>
+      <c r="C149" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>552</v>
+      </c>
+      <c r="C150" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>553</v>
+      </c>
+      <c r="C151" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/Reference_Info/Texture replacements.xlsx
+++ b/Reference_Info/Texture replacements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connell\Documents\GitHub\BD64-VoH_maps\Reference_Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA44CFBA-DCA6-47A3-90F6-70344B6926DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2964D03-B910-44A5-B1C9-796AD9FDDC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3945" yWindow="3615" windowWidth="21600" windowHeight="11295" xr2:uid="{A567E191-AF02-4B5D-A98D-30E219FAA09A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="201">
   <si>
     <t>NEW50</t>
   </si>
@@ -628,6 +628,9 @@
   </si>
   <si>
     <t>Hell Potion</t>
+  </si>
+  <si>
+    <t>Unmaker</t>
   </si>
 </sst>
 </file>
@@ -992,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764EE261-F28C-4A12-9150-B74128514BA4}">
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+      <selection activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2073,6 +2076,14 @@
         <v>199</v>
       </c>
     </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C152" t="s">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E66">
     <sortCondition ref="A5:A66"/>

--- a/Reference_Info/Texture replacements.xlsx
+++ b/Reference_Info/Texture replacements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connell\Documents\GitHub\BD64-VoH_maps\Reference_Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2964D03-B910-44A5-B1C9-796AD9FDDC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6AF085-C554-4998-B4D0-1FC36D4192FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="3615" windowWidth="21600" windowHeight="11295" xr2:uid="{A567E191-AF02-4B5D-A98D-30E219FAA09A}"/>
+    <workbookView xWindow="7200" yWindow="2175" windowWidth="21600" windowHeight="11295" xr2:uid="{A567E191-AF02-4B5D-A98D-30E219FAA09A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="208">
   <si>
     <t>NEW50</t>
   </si>
@@ -631,13 +631,34 @@
   </si>
   <si>
     <t>Unmaker</t>
+  </si>
+  <si>
+    <t>Arachnotron</t>
+  </si>
+  <si>
+    <t>BD64GroundFire</t>
+  </si>
+  <si>
+    <t>Lost Soul</t>
+  </si>
+  <si>
+    <t>Red Fireball</t>
+  </si>
+  <si>
+    <t>Yellow Fireball</t>
+  </si>
+  <si>
+    <t>REMOVE</t>
+  </si>
+  <si>
+    <t>Blue Fireball</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,6 +671,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -675,12 +703,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -995,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764EE261-F28C-4A12-9150-B74128514BA4}">
-  <dimension ref="A1:E152"/>
+  <dimension ref="A1:E163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="D164" sqref="A159:D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2020,7 +2049,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>400</v>
       </c>
@@ -2028,7 +2057,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>550</v>
       </c>
@@ -2036,7 +2065,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>2028</v>
       </c>
@@ -2044,7 +2073,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>2024</v>
       </c>
@@ -2052,7 +2081,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>48</v>
       </c>
@@ -2060,7 +2089,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>552</v>
       </c>
@@ -2068,7 +2097,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>553</v>
       </c>
@@ -2076,19 +2105,91 @@
         <v>199</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>2009</v>
       </c>
       <c r="C152" t="s">
         <v>200</v>
       </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>551</v>
+      </c>
+      <c r="C153" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>749</v>
+      </c>
+      <c r="C154" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>901</v>
+      </c>
+      <c r="C155" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>750</v>
+      </c>
+      <c r="C156" t="s">
+        <v>205</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>751</v>
+      </c>
+      <c r="C157" t="s">
+        <v>207</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>752</v>
+      </c>
+      <c r="C158" t="s">
+        <v>204</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="2"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="2"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E66">
     <sortCondition ref="A5:A66"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Reference_Info/Texture replacements.xlsx
+++ b/Reference_Info/Texture replacements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connell\Documents\GitHub\BD64-VoH_maps\Reference_Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6AF085-C554-4998-B4D0-1FC36D4192FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DA5640-7076-4703-A7E8-12669DE55C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2175" windowWidth="21600" windowHeight="11295" xr2:uid="{A567E191-AF02-4B5D-A98D-30E219FAA09A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A567E191-AF02-4B5D-A98D-30E219FAA09A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="213">
   <si>
     <t>NEW50</t>
   </si>
@@ -652,6 +652,21 @@
   </si>
   <si>
     <t>Blue Fireball</t>
+  </si>
+  <si>
+    <t>Orange Demon artefact</t>
+  </si>
+  <si>
+    <t>Secret Line Cross</t>
+  </si>
+  <si>
+    <t>LINE SPECIALS</t>
+  </si>
+  <si>
+    <t>Stimpack</t>
+  </si>
+  <si>
+    <t>Megasphere</t>
   </si>
 </sst>
 </file>
@@ -1024,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764EE261-F28C-4A12-9150-B74128514BA4}">
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:E165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="D164" sqref="A159:D164"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2075,7 +2090,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>2024</v>
+        <v>556</v>
       </c>
       <c r="C148" t="s">
         <v>196</v>
@@ -2171,19 +2186,47 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="2"/>
+      <c r="A159" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C159" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="2"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="2"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>7582</v>
+      </c>
+      <c r="C160" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>554</v>
+      </c>
+      <c r="C161" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>994</v>
+      </c>
+      <c r="C165" t="s">
+        <v>209</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E66">

--- a/Reference_Info/Texture replacements.xlsx
+++ b/Reference_Info/Texture replacements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connell\Documents\GitHub\BD64-VoH_maps\Reference_Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DA5640-7076-4703-A7E8-12669DE55C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF32365-C0B3-4421-AD92-2EAE149AEC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A567E191-AF02-4B5D-A98D-30E219FAA09A}"/>
+    <workbookView xWindow="7200" yWindow="2175" windowWidth="21600" windowHeight="11295" xr2:uid="{A567E191-AF02-4B5D-A98D-30E219FAA09A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="217">
   <si>
     <t>NEW50</t>
   </si>
@@ -667,6 +667,18 @@
   </si>
   <si>
     <t>Megasphere</t>
+  </si>
+  <si>
+    <t>Split Door</t>
+  </si>
+  <si>
+    <t>Teleport</t>
+  </si>
+  <si>
+    <t>TELEPORTMEDKIT</t>
+  </si>
+  <si>
+    <t>TELEPORTPAIN</t>
   </si>
 </sst>
 </file>
@@ -1039,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764EE261-F28C-4A12-9150-B74128514BA4}">
-  <dimension ref="A1:E165"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2228,6 +2240,38 @@
         <v>209</v>
       </c>
     </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>2087</v>
+      </c>
+      <c r="C166" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>97</v>
+      </c>
+      <c r="C167" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>7581</v>
+      </c>
+      <c r="C168" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>7618</v>
+      </c>
+      <c r="C169" t="s">
+        <v>216</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E66">
     <sortCondition ref="A5:A66"/>

--- a/Reference_Info/Texture replacements.xlsx
+++ b/Reference_Info/Texture replacements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connell\Documents\GitHub\BD64-VoH_maps\Reference_Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF32365-C0B3-4421-AD92-2EAE149AEC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF7A017-4305-49B3-82AF-C94F096CA771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2175" windowWidth="21600" windowHeight="11295" xr2:uid="{A567E191-AF02-4B5D-A98D-30E219FAA09A}"/>
+    <workbookView xWindow="7260" yWindow="2190" windowWidth="16440" windowHeight="9435" xr2:uid="{A567E191-AF02-4B5D-A98D-30E219FAA09A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="220">
   <si>
     <t>NEW50</t>
   </si>
@@ -679,6 +679,15 @@
   </si>
   <si>
     <t>TELEPORTPAIN</t>
+  </si>
+  <si>
+    <t>Pain Elemental</t>
+  </si>
+  <si>
+    <t>Scroll Up</t>
+  </si>
+  <si>
+    <t>Scroll Down</t>
   </si>
 </sst>
 </file>
@@ -1051,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764EE261-F28C-4A12-9150-B74128514BA4}">
-  <dimension ref="A1:E169"/>
+  <dimension ref="A1:E171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2222,7 +2231,12 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="2"/>
+      <c r="A162" s="2">
+        <v>226</v>
+      </c>
+      <c r="C162" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
@@ -2270,6 +2284,22 @@
       </c>
       <c r="C169" t="s">
         <v>216</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>2561</v>
+      </c>
+      <c r="C170" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>2562</v>
+      </c>
+      <c r="C171" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
